--- a/app/data/absenteeism_data_20.xlsx
+++ b/app/data/absenteeism_data_20.xlsx
@@ -476,127 +476,127 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37496</v>
+        <v>72085</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nathan da Conceição</t>
+          <t>Sabrina Peixoto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45083</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>4372.61</v>
+        <v>8909.540000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80528</v>
+        <v>45684</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dra. Maria Castro</t>
+          <t>Dr. Joaquim Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45096</v>
+        <v>45099</v>
       </c>
       <c r="G3" t="n">
-        <v>3186.74</v>
+        <v>8774.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>41794</v>
+        <v>64045</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Luiza Nascimento</t>
+          <t>Cecília Almeida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>5332.43</v>
+        <v>3473.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>65235</v>
+        <v>26136</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Luiz Henrique da Cruz</t>
+          <t>Emanuelly Caldeira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>11802.56</v>
+        <v>5187.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>60073</v>
+        <v>85292</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. João da Rosa</t>
+          <t>Milena Araújo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,26 +606,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45078</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>9836.459999999999</v>
+        <v>7591.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30300</v>
+        <v>85935</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nathan Costela</t>
+          <t>Paulo Araújo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,133 +635,133 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>2779.07</v>
+        <v>9084.84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38647</v>
+        <v>83712</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Emanuel Rodrigues</t>
+          <t>Isabella Rezende</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45100</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>11191.52</v>
+        <v>4485.87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>33206</v>
+        <v>27544</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amanda Moura</t>
+          <t>Sophia Martins</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>6728.67</v>
+        <v>2793.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>87285</v>
+        <v>78630</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Yuri da Paz</t>
+          <t>Eduarda Campos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>7472.37</v>
+        <v>6834.95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>52095</v>
+        <v>96749</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thomas Novaes</t>
+          <t>Amanda Melo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>4506.93</v>
+        <v>8941.16</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_20.xlsx
+++ b/app/data/absenteeism_data_20.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30233</v>
+        <v>901</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Davi Lucas Moraes</t>
+          <t>Gabriela Nascimento</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45096</v>
+        <v>45093</v>
       </c>
       <c r="G2" t="n">
-        <v>2707.98</v>
+        <v>7214</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>55752</v>
+        <v>75773</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Monteiro</t>
+          <t>Dr. Rodrigo Cunha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>11691.43</v>
+        <v>11290.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15035</v>
+        <v>53189</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thales Melo</t>
+          <t>Clara Gonçalves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45088</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>5090.79</v>
+        <v>6511.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5378</v>
+        <v>59333</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Cecília Santos</t>
+          <t>Maria Luiza Jesus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,19 +584,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>10022.43</v>
+        <v>8836.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36406</v>
+        <v>2371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Diogo Santos</t>
+          <t>Vitor Gabriel Martins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,31 +606,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45098</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>6652.5</v>
+        <v>10735.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>71103</v>
+        <v>10828</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Miguel Moreira</t>
+          <t>Sra. Marina Gonçalves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>3682.45</v>
+        <v>9887.459999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>32994</v>
+        <v>14737</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Fernanda Peixoto</t>
+          <t>Luiz Felipe Lopes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,85 +668,85 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>7332.39</v>
+        <v>8027.49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17473</v>
+        <v>35079</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rafael Dias</t>
+          <t>Vinicius da Costa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45090</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>10454.93</v>
+        <v>5612.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5556</v>
+        <v>57786</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lucca Azevedo</t>
+          <t>Maria Silveira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>10381.7</v>
+        <v>11481.55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>44322</v>
+        <v>61994</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Julia Barbosa</t>
+          <t>Srta. Nina Alves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45106</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>8038.57</v>
+        <v>10847.46</v>
       </c>
     </row>
   </sheetData>
